--- a/script/units.xlsx
+++ b/script/units.xlsx
@@ -3437,7 +3437,7 @@
   <dimension ref="A1:C258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
